--- a/results/mp/logistic/corona/confidence/126/0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/0.35/avg_0.003_scores.xlsx
@@ -46,30 +46,33 @@
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
@@ -82,75 +85,75 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>save</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -160,27 +163,21 @@
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
@@ -190,10 +187,13 @@
     <t>you</t>
   </si>
   <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>.</t>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +623,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +641,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9166666666666666</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.4391534391534391</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4338624338624338</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107</v>
+        <v>325</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4117647058823529</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8328981723237598</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M8">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4067796610169492</v>
+        <v>0.174496644295302</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3856589147286822</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C10">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8205128205128205</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2147651006711409</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,37 +1073,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1472222222222222</v>
+        <v>0.009294465568229826</v>
       </c>
       <c r="C12">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>307</v>
+        <v>2345</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,37 +1123,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.00535631113181183</v>
+        <v>0.007089912987431518</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E13">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13">
-        <v>4271</v>
+        <v>3081</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,63 +1173,87 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004281821720513819</v>
+        <v>0.006053550640279395</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F14">
-        <v>0.45</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>5116</v>
+        <v>4269</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L14">
+        <v>110</v>
+      </c>
+      <c r="M14">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>32</v>
       </c>
-      <c r="K14">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="L14">
-        <v>26</v>
-      </c>
-      <c r="M14">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
-      </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.005254963020630596</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>5111</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.78125</v>
+        <v>0.765625</v>
       </c>
       <c r="L16">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M16">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L17">
         <v>35</v>
       </c>
-      <c r="K17">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L17">
-        <v>21</v>
-      </c>
       <c r="M17">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1293,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.76875</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="M18">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1319,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1345,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M20">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1371,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.723404255319149</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1397,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6875</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1423,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.6825396825396826</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1449,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6744186046511628</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1475,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.66</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6571428571428571</v>
+        <v>0.64</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1527,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6264705882352941</v>
+        <v>0.6323529411764706</v>
       </c>
       <c r="L27">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M27">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1553,12 +1577,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>0.6</v>
@@ -1584,16 +1608,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.5774058577405857</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L29">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M29">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,47 +1629,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5748299319727891</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L30">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>125</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5531914893617021</v>
+        <v>0.5830508474576271</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1657,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5428571428571428</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1683,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5384615384615384</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1709,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.4831460674157304</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L34">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1735,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.4761904761904762</v>
+        <v>0.3424657534246575</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1761,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.4313725490196079</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1787,137 +1811,137 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.3561643835616438</v>
+        <v>0.02422723475355054</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.3205128205128205</v>
+        <v>0.01164100638377769</v>
       </c>
       <c r="L38">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.0342237061769616</v>
+        <v>0.01026272577996716</v>
       </c>
       <c r="L39">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="O39">
-        <v>0.05000000000000004</v>
+        <v>0.26</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>1157</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.02127659574468085</v>
+        <v>0.008790288823775638</v>
       </c>
       <c r="L40">
         <v>21</v>
       </c>
       <c r="M40">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O40">
-        <v>0.08999999999999997</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>966</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>0.007670850767085077</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
         <v>59</v>
       </c>
-      <c r="K41">
-        <v>0.01275797373358349</v>
-      </c>
-      <c r="L41">
-        <v>34</v>
-      </c>
-      <c r="M41">
-        <v>42</v>
-      </c>
       <c r="N41">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O41">
-        <v>0.1899999999999999</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2631</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1925,77 +1949,51 @@
         <v>60</v>
       </c>
       <c r="K42">
-        <v>0.009240658899156288</v>
+        <v>0.005824462743522796</v>
       </c>
       <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
         <v>46</v>
       </c>
-      <c r="M42">
-        <v>64</v>
-      </c>
       <c r="N42">
-        <v>0.72</v>
+        <v>0.63</v>
       </c>
       <c r="O42">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>4932</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K43">
-        <v>0.007897793263646922</v>
+        <v>0.005254963020630596</v>
       </c>
       <c r="L43">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N43">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O43">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="44" spans="10:17">
-      <c r="J44" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44">
-        <v>0.00524985417071748</v>
-      </c>
-      <c r="L44">
-        <v>27</v>
-      </c>
-      <c r="M44">
-        <v>49</v>
-      </c>
-      <c r="N44">
-        <v>0.55</v>
-      </c>
-      <c r="O44">
-        <v>0.45</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>5116</v>
+        <v>5111</v>
       </c>
     </row>
   </sheetData>
